--- a/medicine/Enfance/Eric_Carle/Eric_Carle.xlsx
+++ b/medicine/Enfance/Eric_Carle/Eric_Carle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eric Carle est un auteur-illustrateur américain de littérature de jeunesse né le 25 juin 1929 à Syracuse dans l'État de New York et mort le 23 mai 2021 à Northampton[1]. Il illustre ses albums dans un style qui lui est propre (technique du collage). Ses œuvres rencontrent un grand succès et sont traduites dans de nombreuses langues.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eric Carle est un auteur-illustrateur américain de littérature de jeunesse né le 25 juin 1929 à Syracuse dans l'État de New York et mort le 23 mai 2021 à Northampton. Il illustre ses albums dans un style qui lui est propre (technique du collage). Ses œuvres rencontrent un grand succès et sont traduites dans de nombreuses langues.
 </t>
         </is>
       </c>
@@ -511,13 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eric Carle naît à Syracuse en 1929 de parents allemands. Il grandit dans l'Allemagne nazie. En 1952, Eric Carle quitte Stuttgart où il a étudié et arrive à New York. Il est employé au New York Times comme designer graphique puis devient directeur artistique dans une agence de pub.
-Il meurt le 23 mai 2021 à l'âge de 91 ans[2].
-Carrière d'auteur et illustrateur
-Il entame ensuite une carrière d'illustrateur en utilisant la technique du collage qui lui permettra d'être reconnu. Il est l'auteur de plus de 70 ouvrages[3].
-Son album jeunesse La Chenille qui fait des trous, publié en 1969, fait partie des 200 livres préférés des britanniques, dans un sondage de la BBC réalisé en 2003, The Big Read, parmi les 750 000 réponses. Il a été traduit dans 66 langues et vendu à 50 millions d'exemplaires[2].
+Il meurt le 23 mai 2021 à l'âge de 91 ans.
 </t>
         </is>
       </c>
@@ -543,14 +554,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Quelques récompenses</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1970 : Premio Grafico Fiera di Bologna per l'Infanzia Foire du livre de jeunesse de Bologne[4] (Italie) pour 1, 2, 3 to the zoo
-1972 : "Mention" Premio Grafico Fiera di Bologna per l'Infanzia, Foire du livre de jeunesse de Bologne[5] (Italie) pour La Souris qui cherche un ami
-1986 : "Mention" Prix critique en herbe, Foire du livre de jeunesse de Bologne[6] (Italie) pour Décroche-moi la lune !</t>
+          <t>Carrière d'auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il entame ensuite une carrière d'illustrateur en utilisant la technique du collage qui lui permettra d'être reconnu. Il est l'auteur de plus de 70 ouvrages.
+Son album jeunesse La Chenille qui fait des trous, publié en 1969, fait partie des 200 livres préférés des britanniques, dans un sondage de la BBC réalisé en 2003, The Big Read, parmi les 750 000 réponses. Il a été traduit dans 66 langues et vendu à 50 millions d'exemplaires.
+</t>
         </is>
       </c>
     </row>
@@ -575,10 +592,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Quelques récompenses</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1970 : Premio Grafico Fiera di Bologna per l'Infanzia Foire du livre de jeunesse de Bologne (Italie) pour 1, 2, 3 to the zoo
+1972 : "Mention" Premio Grafico Fiera di Bologna per l'Infanzia, Foire du livre de jeunesse de Bologne (Italie) pour La Souris qui cherche un ami
+1986 : "Mention" Prix critique en herbe, Foire du livre de jeunesse de Bologne (Italie) pour Décroche-moi la lune !</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eric_Carle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eric_Carle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Quelques albums traduits en français</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La Chenille qui fait des trous, Nathancop. 1972 ; et rééd. Mijade  (ISBN 978-2-87142-659-2)
  Bon voyage, petit coq !, F. Nathan, 1973
